--- a/files/excel/priceproduct.xlsx
+++ b/files/excel/priceproduct.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>N</t>
   </si>
@@ -25,31 +25,43 @@
     <t>Sanasi</t>
   </si>
   <si>
-    <t>Go'sht</t>
-  </si>
-  <si>
-    <t>pomidor</t>
-  </si>
-  <si>
-    <t>Kartoshka</t>
-  </si>
-  <si>
     <t>Sut</t>
   </si>
   <si>
+    <t>sarimsoq</t>
+  </si>
+  <si>
+    <t>limon</t>
+  </si>
+  <si>
+    <t>kivi</t>
+  </si>
+  <si>
+    <t>tuxum</t>
+  </si>
+  <si>
+    <t>piyoz</t>
+  </si>
+  <si>
+    <t>xren</t>
+  </si>
+  <si>
+    <t>bodiring</t>
+  </si>
+  <si>
+    <t>gul karam</t>
+  </si>
+  <si>
+    <t>sholg'om</t>
+  </si>
+  <si>
+    <t>avakado</t>
+  </si>
+  <si>
+    <t>apelsin</t>
+  </si>
+  <si>
     <t>Non</t>
-  </si>
-  <si>
-    <t>Murch</t>
-  </si>
-  <si>
-    <t>Guruch</t>
-  </si>
-  <si>
-    <t>Pomidor</t>
-  </si>
-  <si>
-    <t>Sabzi</t>
   </si>
 </sst>
 </file>
@@ -438,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D14"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -467,10 +479,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>90000</v>
+        <v>12000</v>
       </c>
       <c r="D2" s="3">
-        <v>45140.79166666667</v>
+        <v>45230.57952865741</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -481,10 +493,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>2000</v>
+        <v>45000</v>
       </c>
       <c r="D3" s="3">
-        <v>45140.79166666667</v>
+        <v>45229.30476878472</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -495,10 +507,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="2">
-        <v>4500</v>
+        <v>19000</v>
       </c>
       <c r="D4" s="3">
-        <v>45140.79166666667</v>
+        <v>45229.30461032408</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -509,10 +521,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="2">
-        <v>4000</v>
+        <v>35000</v>
       </c>
       <c r="D5" s="3">
-        <v>45141.740018240744</v>
+        <v>45229.30447228009</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -523,10 +535,10 @@
         <v>8</v>
       </c>
       <c r="C6" s="2">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="D6" s="3">
-        <v>45141.739772800924</v>
+        <v>45229.30433112269</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -534,13 +546,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="D7" s="3">
-        <v>45141.721550347225</v>
+        <v>45229.30420961806</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -548,13 +560,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2">
-        <v>1500</v>
+        <v>8000</v>
       </c>
       <c r="D8" s="3">
-        <v>45141.618177638884</v>
+        <v>45229.30411059028</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -562,13 +574,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2">
-        <v>6370</v>
+        <v>11000</v>
       </c>
       <c r="D9" s="3">
-        <v>45141.581876006945</v>
+        <v>45229.30400304398</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -576,13 +588,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2">
-        <v>56000</v>
+        <v>12000</v>
       </c>
       <c r="D10" s="3">
-        <v>45141.58177304398</v>
+        <v>45229.30390347222</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -590,13 +602,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2">
-        <v>18300</v>
+        <v>5000</v>
       </c>
       <c r="D11" s="3">
-        <v>45140.79166666667</v>
+        <v>45229.303753252316</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -604,13 +616,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2">
-        <v>3600</v>
+        <v>18000</v>
       </c>
       <c r="D12" s="3">
-        <v>45141.58100780092</v>
+        <v>45229.30366258102</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -618,13 +630,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2">
-        <v>4600</v>
+        <v>25000</v>
       </c>
       <c r="D13" s="3">
-        <v>45141.58077133102</v>
+        <v>45229.30333174768</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -632,27 +644,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="D14" s="3">
-        <v>45139.78785037037</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2">
-        <v>4000</v>
-      </c>
-      <c r="D15" s="3">
-        <v>45139.781529733795</v>
+        <v>45141.721550347225</v>
       </c>
     </row>
   </sheetData>
